--- a/municipal/ENG/Hotels/Guests/Imereti/Tskaltubo Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Imereti/Tskaltubo Municipality.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Guests\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Tsqaltubo" sheetId="1" r:id="rId1"/>
+    <sheet name="Tskaltubo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -90,6 +87,12 @@
     </r>
   </si>
   <si>
+    <t>−</t>
+  </si>
+  <si>
+    <t>(person)</t>
+  </si>
+  <si>
     <r>
       <t>Number of visitors in hotels and hotel type enterprises</t>
     </r>
@@ -112,11 +115,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> by country and purpose of arrival in Tsqaltubo  Municipality</t>
+      <t xml:space="preserve"> by country and purpose of arrival in Tskaltubo  Municipality</t>
     </r>
-  </si>
-  <si>
-    <t>−</t>
   </si>
 </sst>
 </file>
@@ -342,6 +342,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,15 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -678,14 +678,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -695,13 +695,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -759,18 +759,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -828,19 +828,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -899,14 +899,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="37">
         <v>2010</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -965,13 +965,13 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>588</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>269</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1106,7 +1106,7 @@
         <v>422</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>170</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>99</v>
@@ -1190,7 +1190,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -1325,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -1400,7 +1400,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1460,22 +1460,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="44">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34">
         <v>90</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="44">
+      <c r="C13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="34">
         <v>88</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="34">
         <v>2</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>16</v>
+      <c r="F13" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1534,14 +1534,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="38">
         <v>2011</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>1911</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>759</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>39</v>
@@ -1802,15 +1802,15 @@
         <v>14</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>436</v>
@@ -1830,37 +1830,37 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43">
+        <v>9</v>
+      </c>
+      <c r="B22" s="33">
         <v>284</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="33">
         <v>168</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="33">
         <v>29</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="33">
         <v>15</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="33">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="38">
         <v>2012</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9">
         <v>9097</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>5917</v>
@@ -1925,12 +1925,12 @@
         <v>802</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>89</v>
@@ -1955,12 +1955,12 @@
         <v>34</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>4088</v>
@@ -1975,42 +1975,42 @@
         <v>627</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="43">
+        <v>9</v>
+      </c>
+      <c r="B31" s="33">
         <v>1740</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="33">
         <v>1558</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="33">
         <v>41</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="33">
         <v>141</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>16</v>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="38">
         <v>2013</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
         <v>22073</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>17816</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>3209</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>1248</v>
@@ -2130,37 +2130,37 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="43">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
         <v>13359</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="33">
         <v>13358</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="43">
+      <c r="D40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="38">
         <v>2014</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9">
         <v>33123</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>26775</v>
@@ -2219,7 +2219,7 @@
         <v>5402</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" s="10">
         <v>578</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>5508</v>
@@ -2249,10 +2249,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" s="10">
         <v>5474</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>2325</v>
@@ -2269,7 +2269,7 @@
         <v>1066</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" s="10">
         <v>578</v>
@@ -2280,37 +2280,37 @@
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="43">
+        <v>9</v>
+      </c>
+      <c r="B49" s="33">
         <v>18942</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="33">
         <v>4302</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="43">
+      <c r="D49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="33">
         <v>14640</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35">
+      <c r="A50" s="38">
         <v>2015</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9">
         <v>40928</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>33509</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>4045</v>
@@ -2399,7 +2399,7 @@
         <v>2164</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56" s="10">
         <v>330</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>5349</v>
@@ -2430,37 +2430,37 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="43">
+        <v>9</v>
+      </c>
+      <c r="B58" s="33">
         <v>24115</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="33">
         <v>17456</v>
       </c>
-      <c r="D58" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="43">
+      <c r="D58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="33">
         <v>720</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F58" s="33">
         <v>5939</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35">
+      <c r="A59" s="38">
         <v>2016</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9">
         <v>41018</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>26404</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>2251</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>9659</v>
@@ -2580,37 +2580,37 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="43">
+        <v>9</v>
+      </c>
+      <c r="B67" s="33">
         <v>14494</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="33">
         <v>11098</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="33">
         <v>85</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="33">
         <v>787</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="33">
         <v>2524</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="35">
+      <c r="A68" s="38">
         <v>2017</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9">
         <v>44248</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>25404</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>889</v>
@@ -2705,12 +2705,12 @@
         <v>149</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>18527</v>
@@ -2730,37 +2730,37 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="43">
+        <v>9</v>
+      </c>
+      <c r="B76" s="33">
         <v>5988</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="33">
         <v>5453</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="33">
         <v>97</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="33">
         <v>438</v>
       </c>
-      <c r="F76" s="43" t="s">
-        <v>16</v>
+      <c r="F76" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="35">
+      <c r="A77" s="38">
         <v>2018</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>44495</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>24155</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>1784</v>
@@ -2849,18 +2849,18 @@
         <v>1579</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="10">
         <v>205</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>11770</v>
@@ -2875,42 +2875,42 @@
         <v>1101</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="43">
+        <v>9</v>
+      </c>
+      <c r="B85" s="33">
         <v>10601</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="33">
         <v>7121</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="33">
         <v>250</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="33">
         <v>300</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="33">
         <v>2930</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="35">
+      <c r="A86" s="38">
         <v>2019</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="9">
         <v>64147</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>35547</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>2383</v>
@@ -2999,18 +2999,18 @@
         <v>2151</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92" s="10">
         <v>232</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>18600</v>
@@ -3025,42 +3025,42 @@
         <v>2277</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="43">
+        <v>9</v>
+      </c>
+      <c r="B94" s="33">
         <v>14564</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="33">
         <v>11074</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="33">
         <v>200</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="33">
         <v>340</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="33">
         <v>2950</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="35">
+      <c r="A95" s="38">
         <v>2020</v>
       </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9">
         <v>19307</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>97</v>
@@ -3119,18 +3119,18 @@
         <v>97</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>28</v>
@@ -3149,18 +3149,18 @@
         <v>28</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>19</v>
@@ -3169,48 +3169,48 @@
         <v>19</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="43">
+        <v>9</v>
+      </c>
+      <c r="B103" s="33">
         <v>50</v>
       </c>
-      <c r="C103" s="43">
+      <c r="C103" s="33">
         <v>50</v>
       </c>
-      <c r="D103" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="43" t="s">
-        <v>16</v>
+      <c r="D103" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="35">
+      <c r="A104" s="38">
         <v>2021</v>
       </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="9">
         <v>24099</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>4474</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>1516</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>2081</v>
@@ -3330,27 +3330,27 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="43">
+        <v>9</v>
+      </c>
+      <c r="B112" s="33">
         <v>877</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="33">
         <v>377</v>
       </c>
-      <c r="D112" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" s="43">
+      <c r="D112" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="33">
         <v>500</v>
       </c>
-      <c r="F112" s="43" t="s">
-        <v>16</v>
+      <c r="F112" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3399,12 +3399,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3455,12 +3455,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3511,12 +3511,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3567,12 +3567,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3623,12 +3623,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3679,12 +3679,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3735,12 +3735,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3791,12 +3791,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3847,12 +3847,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3903,12 +3903,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
